--- a/data/excel/२०२५/०३/१७.xlsx
+++ b/data/excel/२०२५/०३/१७.xlsx
@@ -52,6 +52,9 @@
     <t>२५.००</t>
   </si>
   <si>
+    <t>४०.००</t>
+  </si>
+  <si>
     <t>४५.००</t>
   </si>
   <si>
@@ -64,9 +67,6 @@
     <t>५०.००</t>
   </si>
   <si>
-    <t>४०.००</t>
-  </si>
-  <si>
     <t>गोलभेडा सानो(तराई)</t>
   </si>
   <si>
@@ -82,63 +82,63 @@
     <t>१८.००</t>
   </si>
   <si>
+    <t>३२.६७</t>
+  </si>
+  <si>
+    <t>आलु रातो</t>
+  </si>
+  <si>
+    <t>३५.००</t>
+  </si>
+  <si>
     <t>३०.००</t>
   </si>
   <si>
-    <t>३२.६७</t>
-  </si>
-  <si>
-    <t>आलु रातो</t>
-  </si>
-  <si>
-    <t>३५.००</t>
+    <t>आलु रातो(भारतीय)</t>
+  </si>
+  <si>
+    <t>३४.००</t>
+  </si>
+  <si>
+    <t>३२.००</t>
   </si>
   <si>
     <t>३३.००</t>
   </si>
   <si>
-    <t>आलु रातो(भारतीय)</t>
-  </si>
-  <si>
-    <t>३४.००</t>
-  </si>
-  <si>
-    <t>३२.००</t>
+    <t>५५.००</t>
+  </si>
+  <si>
+    <t>५२.६७</t>
   </si>
   <si>
     <t>प्याज सुकेको (भारतीय)</t>
   </si>
   <si>
-    <t>५५.००</t>
-  </si>
-  <si>
-    <t>५२.६७</t>
-  </si>
-  <si>
     <t>गाजर(लोकल)</t>
   </si>
   <si>
     <t>गाजर(तराई)</t>
   </si>
   <si>
+    <t>१५.००</t>
+  </si>
+  <si>
+    <t>१०.००</t>
+  </si>
+  <si>
+    <t>१२.३३</t>
+  </si>
+  <si>
     <t>बन्दा(लोकल)</t>
   </si>
   <si>
-    <t>१५.००</t>
-  </si>
-  <si>
-    <t>१०.००</t>
-  </si>
-  <si>
-    <t>१२.३३</t>
+    <t>बन्दा(नरिवल)</t>
   </si>
   <si>
     <t>१७.६७</t>
   </si>
   <si>
-    <t>बन्दा(नरिवल)</t>
-  </si>
-  <si>
     <t>काउली स्थानिय</t>
   </si>
   <si>
@@ -178,18 +178,18 @@
     <t>३२.३३</t>
   </si>
   <si>
+    <t>घिउ सिमी(राजमा)</t>
+  </si>
+  <si>
+    <t>८०.००</t>
+  </si>
+  <si>
     <t>७०.००</t>
   </si>
   <si>
     <t>७५.००</t>
   </si>
   <si>
-    <t>घिउ सिमी(राजमा)</t>
-  </si>
-  <si>
-    <t>८०.००</t>
-  </si>
-  <si>
     <t>टाटे सिमी</t>
   </si>
   <si>
@@ -217,18 +217,18 @@
     <t>परवर(लोकल)</t>
   </si>
   <si>
+    <t>परवर(तराई)</t>
+  </si>
+  <si>
+    <t>१५०.००</t>
+  </si>
+  <si>
+    <t>१४०.००</t>
+  </si>
+  <si>
     <t>१४५.००</t>
   </si>
   <si>
-    <t>परवर(तराई)</t>
-  </si>
-  <si>
-    <t>१५०.००</t>
-  </si>
-  <si>
-    <t>१४०.००</t>
-  </si>
-  <si>
     <t>घिरौला</t>
   </si>
   <si>
@@ -244,39 +244,39 @@
     <t>हरियो फर्सी(डल्लो)</t>
   </si>
   <si>
+    <t>९०.००</t>
+  </si>
+  <si>
+    <t>९५.००</t>
+  </si>
+  <si>
     <t>भिण्डी</t>
   </si>
   <si>
     <t>१००.००</t>
   </si>
   <si>
-    <t>९०.००</t>
-  </si>
-  <si>
-    <t>९५.००</t>
-  </si>
-  <si>
     <t>सखरखण्ड</t>
   </si>
   <si>
     <t>बरेला</t>
   </si>
   <si>
+    <t>८५.००</t>
+  </si>
+  <si>
     <t>पिंडालू</t>
   </si>
   <si>
-    <t>८५.००</t>
-  </si>
-  <si>
     <t>स्कूस</t>
   </si>
   <si>
+    <t>४२.६७</t>
+  </si>
+  <si>
     <t>रायो साग</t>
   </si>
   <si>
-    <t>४२.६७</t>
-  </si>
-  <si>
     <t>पालूगो साग</t>
   </si>
   <si>
@@ -298,13 +298,19 @@
     <t>तरुल</t>
   </si>
   <si>
+    <t>च्याउ(कन्य)</t>
+  </si>
+  <si>
+    <t>१३०.००</t>
+  </si>
+  <si>
     <t>११६.६७</t>
   </si>
   <si>
-    <t>च्याउ(कन्य)</t>
-  </si>
-  <si>
-    <t>१३०.००</t>
+    <t>२००.००</t>
+  </si>
+  <si>
+    <t>२२६.६७</t>
   </si>
   <si>
     <t>च्याउ(डल्ले)</t>
@@ -313,12 +319,6 @@
     <t>२५०.००</t>
   </si>
   <si>
-    <t>२००.००</t>
-  </si>
-  <si>
-    <t>२२६.६७</t>
-  </si>
-  <si>
     <t>कुरीलो</t>
   </si>
   <si>
@@ -364,15 +364,15 @@
     <t>सेलरी</t>
   </si>
   <si>
+    <t>पार्सले</t>
+  </si>
+  <si>
     <t>३००.००</t>
   </si>
   <si>
     <t>२७६.६७</t>
   </si>
   <si>
-    <t>पार्सले</t>
-  </si>
-  <si>
     <t>सौफको साग</t>
   </si>
   <si>
@@ -397,15 +397,15 @@
     <t>तोफु</t>
   </si>
   <si>
+    <t>३२६.६७</t>
+  </si>
+  <si>
+    <t>गुन्दुक</t>
+  </si>
+  <si>
     <t>३५०.००</t>
   </si>
   <si>
-    <t>३२६.६७</t>
-  </si>
-  <si>
-    <t>गुन्दुक</t>
-  </si>
-  <si>
     <t>स्याउ(झोले)</t>
   </si>
   <si>
@@ -415,27 +415,27 @@
     <t>२४०.००</t>
   </si>
   <si>
+    <t>स्याउ(फूजी)</t>
+  </si>
+  <si>
     <t>२८०.००</t>
   </si>
   <si>
     <t>३२०.००</t>
   </si>
   <si>
-    <t>स्याउ(फूजी)</t>
+    <t>दर्जन</t>
   </si>
   <si>
     <t>केरा</t>
   </si>
   <si>
-    <t>दर्जन</t>
+    <t>कागती</t>
   </si>
   <si>
     <t>२४५.००</t>
   </si>
   <si>
-    <t>कागती</t>
-  </si>
-  <si>
     <t>अनार</t>
   </si>
   <si>
@@ -475,12 +475,12 @@
     <t>मेवा(नेपाली)</t>
   </si>
   <si>
+    <t>मेवा(भारतीय)</t>
+  </si>
+  <si>
     <t>१०५.००</t>
   </si>
   <si>
-    <t>मेवा(भारतीय)</t>
-  </si>
-  <si>
     <t>लप्सी</t>
   </si>
   <si>
@@ -523,12 +523,12 @@
     <t>खु्र्सानी हरियो</t>
   </si>
   <si>
+    <t>१२५.००</t>
+  </si>
+  <si>
     <t>खुर्सानी हरियो(बुलेट)</t>
   </si>
   <si>
-    <t>१२५.००</t>
-  </si>
-  <si>
     <t>भेडे खु्र्सानी</t>
   </si>
   <si>
@@ -538,24 +538,24 @@
     <t>हरियो धनिया</t>
   </si>
   <si>
+    <t>२६०.००</t>
+  </si>
+  <si>
+    <t>२७०.००</t>
+  </si>
+  <si>
     <t>लसुन सुकेको चाइनिज</t>
   </si>
   <si>
-    <t>२६०.००</t>
-  </si>
-  <si>
-    <t>२७०.००</t>
+    <t>२२०.००</t>
+  </si>
+  <si>
+    <t>२२५.००</t>
   </si>
   <si>
     <t>लसुन सुकेको नेपाली</t>
   </si>
   <si>
-    <t>२२०.००</t>
-  </si>
-  <si>
-    <t>२२५.००</t>
-  </si>
-  <si>
     <t>छ्यापी सुकेको</t>
   </si>
   <si>
@@ -583,13 +583,13 @@
     <t>राजा च्याउ</t>
   </si>
   <si>
+    <t>सिताके च्याउ</t>
+  </si>
+  <si>
+    <t>७००.००</t>
+  </si>
+  <si>
     <t>७५०.००</t>
-  </si>
-  <si>
-    <t>सिताके च्याउ</t>
-  </si>
-  <si>
-    <t>७००.००</t>
   </si>
 </sst>
 </file>
@@ -944,19 +944,19 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -984,19 +984,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -1004,19 +1004,19 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -1024,19 +1024,19 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
         <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -1050,13 +1050,13 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
@@ -1067,7 +1067,7 @@
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -1084,19 +1084,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>36</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>37</v>
-      </c>
-      <c r="F10" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11">
@@ -1104,19 +1104,19 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -1147,10 +1147,10 @@
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -1170,13 +1170,13 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
@@ -1193,10 +1193,10 @@
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
@@ -1207,10 +1207,10 @@
         <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
@@ -1230,10 +1230,10 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s">
         <v>46</v>
@@ -1250,10 +1250,10 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -1270,10 +1270,10 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F19" t="s">
         <v>46</v>
@@ -1290,13 +1290,13 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
         <v>25</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>22</v>
-      </c>
-      <c r="F20" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="21">
@@ -1307,13 +1307,13 @@
         <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
         <v>25</v>
-      </c>
-      <c r="E21" t="s">
-        <v>22</v>
       </c>
       <c r="F21" t="s">
         <v>53</v>
@@ -1324,19 +1324,19 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
         <v>56</v>
       </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>57</v>
-      </c>
-      <c r="E22" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="23">
@@ -1350,7 +1350,7 @@
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
         <v>59</v>
@@ -1390,13 +1390,13 @@
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
         <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
@@ -1424,19 +1424,19 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
         <v>68</v>
       </c>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>69</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>70</v>
-      </c>
-      <c r="F27" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="28">
@@ -1450,13 +1450,13 @@
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
@@ -1473,10 +1473,10 @@
         <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
@@ -1490,13 +1490,13 @@
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
@@ -1513,10 +1513,10 @@
         <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32">
@@ -1527,16 +1527,16 @@
         <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
         <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
@@ -1544,19 +1544,19 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" t="s">
         <v>76</v>
       </c>
-      <c r="C33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
         <v>77</v>
-      </c>
-      <c r="E33" t="s">
-        <v>78</v>
-      </c>
-      <c r="F33" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="34">
@@ -1570,7 +1570,7 @@
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E34" t="s">
         <v>59</v>
@@ -1590,10 +1590,10 @@
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F35" t="s">
         <v>46</v>
@@ -1604,19 +1604,19 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" t="s">
         <v>82</v>
-      </c>
-      <c r="C36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F36" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="37">
@@ -1630,13 +1630,13 @@
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38">
@@ -1644,19 +1644,19 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
         <v>85</v>
-      </c>
-      <c r="C38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="39">
@@ -1670,7 +1670,7 @@
         <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E39" t="s">
         <v>59</v>
@@ -1690,13 +1690,13 @@
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41">
@@ -1710,13 +1710,13 @@
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42">
@@ -1733,10 +1733,10 @@
         <v>59</v>
       </c>
       <c r="E42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
@@ -1750,13 +1750,13 @@
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44">
@@ -1770,13 +1770,13 @@
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45">
@@ -1790,13 +1790,13 @@
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46">
@@ -1804,19 +1804,19 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s">
         <v>95</v>
       </c>
-      <c r="C46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46" t="s">
         <v>96</v>
-      </c>
-      <c r="E46" t="s">
-        <v>77</v>
-      </c>
-      <c r="F46" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="47">
@@ -1824,19 +1824,19 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
         <v>18</v>
       </c>
       <c r="D47" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47" t="s">
         <v>98</v>
-      </c>
-      <c r="E47" t="s">
-        <v>99</v>
-      </c>
-      <c r="F47" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="48">
@@ -1870,13 +1870,13 @@
         <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50">
@@ -1893,10 +1893,10 @@
         <v>59</v>
       </c>
       <c r="E50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
@@ -1910,10 +1910,10 @@
         <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F51" t="s">
         <v>107</v>
@@ -1953,10 +1953,10 @@
         <v>59</v>
       </c>
       <c r="E53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
@@ -1973,10 +1973,10 @@
         <v>59</v>
       </c>
       <c r="E54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
@@ -1990,13 +1990,13 @@
         <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E55" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56">
@@ -2004,19 +2004,19 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>117</v>
+      </c>
+      <c r="E56" t="s">
+        <v>100</v>
+      </c>
+      <c r="F56" t="s">
         <v>118</v>
-      </c>
-      <c r="C56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" t="s">
-        <v>116</v>
-      </c>
-      <c r="E56" t="s">
-        <v>98</v>
-      </c>
-      <c r="F56" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E57" t="s">
         <v>59</v>
@@ -2050,13 +2050,13 @@
         <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E58" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F58" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59">
@@ -2070,10 +2070,10 @@
         <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E59" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
         <v>122</v>
@@ -2093,7 +2093,7 @@
         <v>110</v>
       </c>
       <c r="E60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F60" t="s">
         <v>123</v>
@@ -2110,13 +2110,13 @@
         <v>10</v>
       </c>
       <c r="D61" t="s">
+        <v>79</v>
+      </c>
+      <c r="E61" t="s">
+        <v>76</v>
+      </c>
+      <c r="F61" t="s">
         <v>77</v>
-      </c>
-      <c r="E61" t="s">
-        <v>78</v>
-      </c>
-      <c r="F61" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="62">
@@ -2144,19 +2144,19 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" t="s">
         <v>129</v>
       </c>
-      <c r="C63" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
+        <v>117</v>
+      </c>
+      <c r="F63" t="s">
         <v>127</v>
-      </c>
-      <c r="E63" t="s">
-        <v>116</v>
-      </c>
-      <c r="F63" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="64">
@@ -2170,7 +2170,7 @@
         <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E64" t="s">
         <v>131</v>
@@ -2184,19 +2184,19 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C65" t="s">
         <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E65" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F65" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66">
@@ -2204,19 +2204,19 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" t="s">
         <v>136</v>
       </c>
-      <c r="C66" t="s">
-        <v>137</v>
-      </c>
       <c r="D66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E66" t="s">
         <v>69</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>70</v>
-      </c>
-      <c r="F66" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="67">
@@ -2224,19 +2224,19 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C67" t="s">
         <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E67" t="s">
         <v>132</v>
       </c>
       <c r="F67" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68">
@@ -2250,13 +2250,13 @@
         <v>10</v>
       </c>
       <c r="D68" t="s">
+        <v>129</v>
+      </c>
+      <c r="E68" t="s">
+        <v>117</v>
+      </c>
+      <c r="F68" t="s">
         <v>127</v>
-      </c>
-      <c r="E68" t="s">
-        <v>116</v>
-      </c>
-      <c r="F68" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="69">
@@ -2270,7 +2270,7 @@
         <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E69" t="s">
         <v>109</v>
@@ -2287,10 +2287,10 @@
         <v>143</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E70" t="s">
         <v>131</v>
@@ -2307,10 +2307,10 @@
         <v>144</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E71" t="s">
         <v>62</v>
@@ -2330,7 +2330,7 @@
         <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E72" t="s">
         <v>109</v>
@@ -2350,13 +2350,13 @@
         <v>10</v>
       </c>
       <c r="D73" t="s">
+        <v>68</v>
+      </c>
+      <c r="E73" t="s">
         <v>69</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>70</v>
-      </c>
-      <c r="F73" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="74">
@@ -2370,13 +2370,13 @@
         <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E74" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
@@ -2390,7 +2390,7 @@
         <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E75" t="s">
         <v>6</v>
@@ -2410,13 +2410,13 @@
         <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E76" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77">
@@ -2427,16 +2427,16 @@
         <v>151</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E77" t="s">
         <v>132</v>
       </c>
       <c r="F77" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78">
@@ -2450,13 +2450,13 @@
         <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E78" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79">
@@ -2464,19 +2464,19 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D79" t="s">
         <v>61</v>
       </c>
       <c r="E79" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F79" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80">
@@ -2490,13 +2490,13 @@
         <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E80" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81">
@@ -2510,10 +2510,10 @@
         <v>10</v>
       </c>
       <c r="D81" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" t="s">
         <v>12</v>
-      </c>
-      <c r="E81" t="s">
-        <v>16</v>
       </c>
       <c r="F81" t="s">
         <v>157</v>
@@ -2530,7 +2530,7 @@
         <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E82" t="s">
         <v>109</v>
@@ -2547,13 +2547,13 @@
         <v>159</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D83" t="s">
         <v>160</v>
       </c>
       <c r="E83" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F83" t="s">
         <v>161</v>
@@ -2570,13 +2570,13 @@
         <v>163</v>
       </c>
       <c r="D84" t="s">
+        <v>79</v>
+      </c>
+      <c r="E84" t="s">
+        <v>76</v>
+      </c>
+      <c r="F84" t="s">
         <v>77</v>
-      </c>
-      <c r="E84" t="s">
-        <v>78</v>
-      </c>
-      <c r="F84" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="85">
@@ -2590,13 +2590,13 @@
         <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E85" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F85" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86">
@@ -2613,7 +2613,7 @@
         <v>167</v>
       </c>
       <c r="E86" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F86" t="s">
         <v>165</v>
@@ -2644,19 +2644,19 @@
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C88" t="s">
         <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E88" t="s">
         <v>64</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89">
@@ -2670,13 +2670,13 @@
         <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E89" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F89" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90">
@@ -2693,10 +2693,10 @@
         <v>59</v>
       </c>
       <c r="E90" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91">
@@ -2713,10 +2713,10 @@
         <v>59</v>
       </c>
       <c r="E91" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92">
@@ -2724,19 +2724,19 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
+        <v>176</v>
+      </c>
+      <c r="C92" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" t="s">
+        <v>134</v>
+      </c>
+      <c r="E92" t="s">
         <v>174</v>
       </c>
-      <c r="C92" t="s">
-        <v>10</v>
-      </c>
-      <c r="D92" t="s">
-        <v>133</v>
-      </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>175</v>
-      </c>
-      <c r="F92" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="93">
@@ -2744,7 +2744,7 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C93" t="s">
         <v>10</v>
@@ -2753,10 +2753,10 @@
         <v>131</v>
       </c>
       <c r="E93" t="s">
+        <v>177</v>
+      </c>
+      <c r="F93" t="s">
         <v>178</v>
-      </c>
-      <c r="F93" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="94">
@@ -2773,10 +2773,10 @@
         <v>110</v>
       </c>
       <c r="E94" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F94" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95">
@@ -2790,7 +2790,7 @@
         <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E95" t="s">
         <v>59</v>
@@ -2810,10 +2810,10 @@
         <v>18</v>
       </c>
       <c r="D96" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E96" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F96" t="s">
         <v>183</v>
@@ -2830,13 +2830,13 @@
         <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E97" t="s">
         <v>132</v>
       </c>
       <c r="F97" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98">
@@ -2853,7 +2853,7 @@
         <v>132</v>
       </c>
       <c r="E98" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F98" t="s">
         <v>131</v>
@@ -2867,13 +2867,13 @@
         <v>186</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D99" t="s">
         <v>111</v>
       </c>
       <c r="E99" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F99" t="s">
         <v>110</v>
@@ -2890,10 +2890,10 @@
         <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E100" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F100" t="s">
         <v>187</v>
@@ -2904,7 +2904,7 @@
         <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C101" t="s">
         <v>10</v>
@@ -2913,10 +2913,10 @@
         <v>103</v>
       </c>
       <c r="E101" t="s">
+        <v>190</v>
+      </c>
+      <c r="F101" t="s">
         <v>191</v>
-      </c>
-      <c r="F101" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
